--- a/results/random_brier.xlsx
+++ b/results/random_brier.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -35,238 +35,235 @@
     <t xml:space="preserve">stk.comp.ridge</t>
   </si>
   <si>
+    <t xml:space="preserve">random.stk.pf.ridge</t>
+  </si>
+  <si>
     <t xml:space="preserve">random.stk.comp.ridge</t>
   </si>
   <si>
-    <t xml:space="preserve">random.stk.pf.ridge</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRCA</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.201(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188(0.004)</t>
+    <t xml:space="preserve">0.140(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.240(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.229(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.219(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.201(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.190(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.215(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.223(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191(0.005)</t>
   </si>
   <si>
     <t xml:space="preserve">0.193(0.005)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.257(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.246(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIRC</t>
+    <t xml:space="preserve">LGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.195(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186(0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.225(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.216(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.215(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226(0.003)</t>
   </si>
   <si>
     <t xml:space="preserve">0.220(0.003)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.212(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.205(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.207(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.209(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.210(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.237(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.221(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.218(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.224(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.195(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.206(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.201(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIHC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.267(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.242(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.257(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.255(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.244(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.238(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.235(0.004)</t>
+    <t xml:space="preserve">0.221(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.216(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214(0.003)</t>
   </si>
   <si>
     <t xml:space="preserve">LUSC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.250(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.264(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.263(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.252(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.254(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.251(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253(0.003)</t>
+    <t xml:space="preserve">0.231(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.244(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.233(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232(0.002)</t>
   </si>
   <si>
     <t xml:space="preserve">PAAD</t>
   </si>
   <si>
-    <t xml:space="preserve">0.203(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189(0.005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197(0.004)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200(0.004)</t>
+    <t xml:space="preserve">0.222(0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.213(0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.209(0.006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217(0.004)</t>
   </si>
   <si>
     <t xml:space="preserve">SKCM</t>
   </si>
   <si>
+    <t xml:space="preserve">0.177(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.218(0.002)</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.179(0.003)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.225(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178(0.003)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174(0.003)</t>
+    <t xml:space="preserve">0.176(0.003)</t>
   </si>
   <si>
     <t xml:space="preserve">0.175(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172(0.003)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173(0.003)</t>
   </si>
 </sst>
 </file>
@@ -644,277 +641,277 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>81</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>82</v>
       </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
         <v>83</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
